--- a/02_分析/システムテスト仕様書.xlsx
+++ b/02_分析/システムテスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cresco365.sharepoint.com/sites/Team_fresh2020/Shared Documents/Ch104_グループ4/第1反復計画立案/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_41BE243C7ABBF0894F88B75570D4B8164CF08983" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A3EE083-CDB1-4C28-BC9B-BC4821AA2B30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37801B1-6204-4DC0-890A-054034117BC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="285" windowWidth="10920" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォーマット" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>チケット予約システムテスト仕様書</t>
+    <phoneticPr fontId="2"/>
+  </si>
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -114,52 +120,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チケット予約システムテスト仕様書</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>チケットが予約でき、正常終了するか</t>
+  </si>
+  <si>
     <t>2</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不正なチケット番号を入力したとき
-再びチケットを選択できるか</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チケットの在庫が0の場合、
-再びチケットを選択できるか</t>
-    <rPh sb="5" eb="7">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チケットが予約でき、正常終了するか</t>
-  </si>
-  <si>
-    <t>５</t>
   </si>
   <si>
     <t>ユーザがチケットを予約せず
@@ -174,24 +143,6 @@
 2.ログアウトする</t>
     <rPh sb="26" eb="28">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.ユーザがID「inu」とパスワード「neko」を入力しログインする
-2.ユーザがチケット番号「003」を選択する
-3.ユーザがチケットを予約する
-4.ユーザはログアウトする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
-2. ユーザがチケット番号「100」を選択する</t>
-    <rPh sb="48" eb="50">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -211,16 +162,75 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>誤ったパスワードを入力した際、
-再入力できるか</t>
-  </si>
-  <si>
-    <t>「ログアウトしました」
-と表示
-正常終了する</t>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正なチケット番号を入力したとき
+再びチケットを選択できるか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
+2. ユーザがチケット番号「100」を選択する</t>
+    <rPh sb="48" eb="50">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正なチケット番号です」と表示
+再び入力を要求する</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チケットの在庫が0の場合、
+再びチケットを選択できるか</t>
+    <rPh sb="5" eb="7">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
+2. ユーザがチケット番号「004」を選択する</t>
+    <rPh sb="48" eb="50">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -238,95 +248,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「IDが存在しません」と表示
-再び入力を要求する</t>
-    <rPh sb="4" eb="6">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「パスワードが正しくありません」と表示
-再び入力を要求する</t>
-    <rPh sb="7" eb="8">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正なチケット番号です」と表示
-再び入力を要求する</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">.ユーザがID「inuu」とパスワード「nekoo」を入力しログインする
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザが存在するID「inu」とパスワード「nekoo」を入力しログインする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>誤ったIDを入力した際、
-再入力できるか</t>
-    <rPh sb="0" eb="1">
-      <t>アヤマ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>サイニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
-2. ユーザがチケット番号「004」を選択する</t>
-    <rPh sb="48" eb="50">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>「予約ができました」と表示された後、チケット情報の在庫が事前に「50」で、事後に「49」に減っている
+「ログアウトしました」と表示され正常終了する</t>
+  </si>
+  <si>
+    <t>1.ユーザがID「inu」とパスワード「neko」を入力しログインする
+2.チケット情報一覧が表示され選択するチケットの在庫情報(50)を確認する
+2.ユーザがチケット番号「003」を選択する
+3.ユーザがチケットを予約する
+4.再びチケット情報一覧が表示され選択したチケットの在庫(49)になったか確認する
+5.ユーザはログアウトする</t>
   </si>
 </sst>
 </file>
@@ -653,39 +584,63 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,30 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,8 +1020,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7:X7"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1104,812 +1035,796 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
     </row>
     <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12" t="s">
+      <c r="E6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="12" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="12" t="s">
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="12" t="s">
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="12" t="s">
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="12" t="s">
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="25"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="33"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:45" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="7" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="30"/>
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="22"/>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="30"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="22"/>
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="30"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="22"/>
+      <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="30"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="22"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="30"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="22"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="30"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="30"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="30"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="30"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="30"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="17"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="98">
@@ -2020,12 +1935,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2034,7 +1943,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2218,23 +2127,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2242,7 +2141,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29C11902-004E-4CCE-B92A-14D043562486}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2258,4 +2157,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_分析/システムテスト仕様書.xlsx
+++ b/02_分析/システムテスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Git\miniProject3\02_分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37801B1-6204-4DC0-890A-054034117BC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAFC44-2EA0-46B9-A06E-EF7857788E3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="285" windowWidth="10920" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォーマット" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>チケット予約システムテスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -131,133 +129,106 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザがチケットを予約せず
-ログアウトできるか</t>
-    <rPh sb="9" eb="11">
-      <t>ヨヤク</t>
-    </rPh>
+    <t>3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.ユーザがID「inu」とパスワード「neko」を入力しログインする
-2.ログアウトする</t>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
+    <t>4</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「予約ができました」と表示された後、チケット情報の在庫が事前に「50」で、事後に「49」に減っている
+「ログアウトしました」と表示され正常終了する</t>
+  </si>
+  <si>
+    <t>「在庫が存在しません」と表示
+再び入力を要求する</t>
+  </si>
+  <si>
+    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
+2. ユーザがチケット番号「004」を選択する</t>
+  </si>
+  <si>
+    <t>チケットの在庫が0の場合、
+再びチケットを選択できるか</t>
+  </si>
+  <si>
+    <t>「不正なチケット番号です」と表示
+再び入力を要求する</t>
+  </si>
+  <si>
+    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
+2. ユーザがチケット番号「100」を選択する</t>
+  </si>
+  <si>
+    <t>不正なチケット番号を入力したとき
+再びチケットを選択できるか</t>
   </si>
   <si>
     <t>「ログアウトしました」
 と表示
 正常終了する</t>
-    <rPh sb="13" eb="15">
+  </si>
+  <si>
+    <t>1.ユーザがID「inu」とパスワード「neko」を入力しログインする
+2.ログアウトする</t>
+  </si>
+  <si>
+    <t>ユーザがチケットを予約せず
+ログアウトできるか</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チケット一覧が表示できるか</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイジョウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チケット一覧が表示される</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュウリョウ</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不正なチケット番号を入力したとき
-再びチケットを選択できるか</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
-2. ユーザがチケット番号「100」を選択する</t>
-    <rPh sb="48" eb="50">
-      <t>バンゴウ</t>
+    <t>前提条件:ユーザがID「inu」とパスワード「neko」を入力しログインする
+チケット情報一覧が表示するを選択する</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
     </rPh>
-    <rPh sb="56" eb="58">
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正なチケット番号です」と表示
-再び入力を要求する</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チケットの在庫が0の場合、
-再びチケットを選択できるか</t>
-    <rPh sb="5" eb="7">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
-2. ユーザがチケット番号「004」を選択する</t>
-    <rPh sb="48" eb="50">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「在庫が存在しません」と表示
-再び入力を要求する</t>
-    <rPh sb="15" eb="16">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「予約ができました」と表示された後、チケット情報の在庫が事前に「50」で、事後に「49」に減っている
-「ログアウトしました」と表示され正常終了する</t>
-  </si>
-  <si>
-    <t>1.ユーザがID「inu」とパスワード「neko」を入力しログインする
-2.チケット情報一覧が表示され選択するチケットの在庫情報(50)を確認する
+    <t>前提条件:ユーザID←inu、パスワード←neko　でログイン
+1.チケット情報一覧が表示され選択するチケットの在庫情報(50)を確認する
 2.ユーザがチケット番号「003」を選択する
 3.ユーザがチケットを予約する
 4.再びチケット情報一覧が表示され選択したチケットの在庫(49)になったか確認する
 5.ユーザはログアウトする</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -339,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -562,13 +533,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +583,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -608,7 +631,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,65 +661,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,7 +1020,7 @@
   <dimension ref="B1:AS17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="AD7" sqref="AD7:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1035,104 +1034,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1225,641 +1224,667 @@
       <c r="AS5" s="9"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="16" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="16" t="s">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="16" t="s">
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="16" t="s">
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="16" t="s">
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="16" t="s">
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="33"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="12"/>
     </row>
     <row r="7" spans="2:45" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="16"/>
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="30"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="16"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="19"/>
+      <c r="B9" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="37"/>
       <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="16"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19"/>
+      <c r="B10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="37"/>
       <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="30"/>
+      <c r="E10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="16"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="30"/>
+      <c r="B11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="16"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="30"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="30"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="16"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="30"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="16"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="30"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="16"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="30"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="16"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="25"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="B2:AS3"/>
@@ -1876,56 +1901,38 @@
     <mergeCell ref="E10:S10"/>
     <mergeCell ref="AH6:AK6"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1935,15 +1942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2127,6 +2125,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2134,14 +2141,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29C11902-004E-4CCE-B92A-14D043562486}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2159,6 +2158,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>

--- a/02_分析/システムテスト仕様書.xlsx
+++ b/02_分析/システムテスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Git\miniProject3\02_分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAFC44-2EA0-46B9-A06E-EF7857788E3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B2226-2FA8-4514-B480-02E842626A84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>チケット予約システムテスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -145,20 +145,12 @@
 再び入力を要求する</t>
   </si>
   <si>
-    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
-2. ユーザがチケット番号「004」を選択する</t>
-  </si>
-  <si>
     <t>チケットの在庫が0の場合、
 再びチケットを選択できるか</t>
   </si>
   <si>
     <t>「不正なチケット番号です」と表示
 再び入力を要求する</t>
-  </si>
-  <si>
-    <t>1. ユーザがID「inu」とパスワード「neko」を入力しログインする
-2. ユーザがチケット番号「100」を選択する</t>
   </si>
   <si>
     <t>不正なチケット番号を入力したとき
@@ -168,10 +160,6 @@
     <t>「ログアウトしました」
 と表示
 正常終了する</t>
-  </si>
-  <si>
-    <t>1.ユーザがID「inu」とパスワード「neko」を入力しログインする
-2.ログアウトする</t>
   </si>
   <si>
     <t>ユーザがチケットを予約せず
@@ -202,32 +190,33 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>前提条件:ユーザがID「inu」とパスワード「neko」を入力しログインする
+    <t xml:space="preserve">
 チケット情報一覧が表示するを選択する</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
+    <rPh sb="15" eb="17">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>前提条件:ユーザID←inu、パスワード←neko　でログイン
-1.チケット情報一覧が表示され選択するチケットの在庫情報(50)を確認する
-2.ユーザがチケット番号「003」を選択する
-3.ユーザがチケットを予約する
-4.再びチケット情報一覧が表示され選択したチケットの在庫(49)になったか確認する
-5.ユーザはログアウトする</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンテイ</t>
+    <t>1.ユーザがIDとパスワードを入力しログインする
+2.ログアウトする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ユーザIDとパスワードを入力する
+2.チケット情報一覧が表示され選択するチケットの在庫情報(50)を確認する
+3.ユーザがチケット番号を選択する
+4.ユーザがチケットを予約する
+5.再びチケット情報一覧が表示され選択したチケットの在庫(49)になったか確認する
+6.ユーザはログアウトする</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ユーザがIDとパスワードを入力しログインする
+2. ユーザがチケット番号を選択する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -583,12 +572,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,84 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,6 +680,174 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243933</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF1041A-6240-4587-87C1-9EEA2D85D96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797348" y="1138354"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243933</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23231</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3679982" cy="264100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E51BD8-1278-40DA-9C8C-626358F0E81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797348" y="511097"/>
+          <a:ext cx="3679982" cy="264100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前提条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>：ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>←</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>inu </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード←</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>neko </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>でログイン チケット番号←</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>003</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,8 +1176,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7:AG7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1034,104 +1191,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1224,617 +1381,699 @@
       <c r="AS5" s="9"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="10" t="s">
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="10" t="s">
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="10" t="s">
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="10" t="s">
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="10" t="s">
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="12"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="38"/>
     </row>
     <row r="7" spans="2:45" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="33"/>
     </row>
-    <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="2:45" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="23" t="s">
+      <c r="E8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="16"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="33"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="33"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="16"/>
+      <c r="E10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="33"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="37"/>
+      <c r="B11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="23" t="s">
+      <c r="E11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="16"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="33"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="16"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="33"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="16"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="33"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="16"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="33"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="16"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="33"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="16"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="33"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="B4:C4"/>
@@ -1851,97 +2090,31 @@
     <mergeCell ref="E13:S13"/>
     <mergeCell ref="T13:X13"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2125,22 +2298,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29C11902-004E-4CCE-B92A-14D043562486}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2156,21 +2331,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_分析/システムテスト仕様書.xlsx
+++ b/02_分析/システムテスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Git\miniProject3\02_分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B2226-2FA8-4514-B480-02E842626A84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A919CF-97E7-4444-9030-056C1CA8CCA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>チケット予約システムテスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「予約ができました」と表示された後、チケット情報の在庫が事前に「50」で、事後に「49」に減っている
-「ログアウトしました」と表示され正常終了する</t>
-  </si>
-  <si>
     <t>「在庫が存在しません」と表示
 再び入力を要求する</t>
   </si>
@@ -180,34 +176,78 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チケット一覧が表示される</t>
+    <t>【前提条件】チケット情報に以下の情報が格納されており、以下のように表示される。
+チケット番号 | チケット名 |   価格   |    開催日   | 在庫 |
+　　01 　　　　　　ライブ１　　　1000    2020/07/07   100
+　　02 　　　　　　ライブ2　　　  500     2020/06/23   100
+　　03　　　　　　 ライブ3　　　 1500    2020/10/28    80
+1.チケット情報一覧が表示するを選択する</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="404" eb="406">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ログアウトする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ユーザがチケット番号を選択する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ユーザがチケット番号を選択する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チケット一覧が以下のように表示される
+チケット番号 | チケット名 |   価格   |    開催日   | 在庫 |
+　　01 　　　　　　ライブ１　　　1000    2020/07/07   100
+　　02 　　　　　　ライブ2　　　  500     2020/06/23   100
+　　03　　　　　　 ライブ3　　　 1500    2020/10/28    80</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">
-チケット情報一覧が表示するを選択する</t>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.ユーザがIDとパスワードを入力しログインする
-2.ログアウトする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.ユーザIDとパスワードを入力する
-2.チケット情報一覧が表示され選択するチケットの在庫情報(50)を確認する
+2.チケット情報一覧が表示され選択するチケットの在庫情報(80)を確認する
 3.ユーザがチケット番号を選択する
 4.ユーザがチケットを予約する
-5.再びチケット情報一覧が表示され選択したチケットの在庫(49)になったか確認する
+5.再びチケット情報一覧が表示され選択したチケットの在庫(79)になったか確認する
 6.ユーザはログアウトする</t>
     <rPh sb="14" eb="16">
       <t>ニュウリョク</t>
@@ -215,8 +255,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. ユーザがIDとパスワードを入力しログインする
-2. ユーザがチケット番号を選択する</t>
+    <t>「予約ができました」と表示された後、チケット情報の在庫が事前に「50」で、事後に「49」に減っている
+　　03　　　　　　 ライブ3　　　 1500    2020/10/28    80
+↓
+　　03　　　　　　 ライブ3　　　 1500    2020/10/28    79
+「ログアウトしました」と表示され正常終了する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -572,6 +615,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -581,7 +678,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,81 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,12 +784,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>243933</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>23231</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>255550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46462</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3679982" cy="264100"/>
+    <xdr:ext cx="5087744" cy="487867"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -760,8 +803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4797348" y="511097"/>
-          <a:ext cx="3679982" cy="264100"/>
+          <a:off x="4530184" y="348474"/>
+          <a:ext cx="5087744" cy="487867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -801,7 +844,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前提条件</a:t>
+            <a:t>共通の前提条件</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -833,12 +876,35 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>でログイン チケット番号←</a:t>
+            <a:t>でログインされている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>チケット番号は</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>003</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>03</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>を選択する</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1176,8 +1242,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:S11"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1186,109 +1252,111 @@
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="5" max="23" width="3.625" style="1"/>
+    <col min="24" max="24" width="31" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1381,649 +1449,667 @@
       <c r="AS5" s="9"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="16" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="16" t="s">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="16" t="s">
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="16" t="s">
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="16" t="s">
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="16" t="s">
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="38"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="12"/>
     </row>
-    <row r="7" spans="2:45" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="2:45" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="33"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="16"/>
     </row>
     <row r="8" spans="2:45" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="33"/>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="16"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="33"/>
+      <c r="E9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="16"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="33"/>
+      <c r="E10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="16"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="19"/>
+      <c r="B11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="24"/>
       <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="33"/>
+      <c r="E11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="16"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="33"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="33"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="16"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="33"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="16"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="33"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="16"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="33"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="16"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="28"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
     <mergeCell ref="E11:S11"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="B2:AS3"/>
@@ -2040,56 +2126,38 @@
     <mergeCell ref="E10:S10"/>
     <mergeCell ref="AH6:AK6"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AL6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -2100,21 +2168,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2298,24 +2351,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29C11902-004E-4CCE-B92A-14D043562486}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2331,4 +2382,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>